--- a/biology/Médecine/Spermaturie/Spermaturie.xlsx
+++ b/biology/Médecine/Spermaturie/Spermaturie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La spermaturie est un état pathologique chez l'homme caractérisé par la présence de spermatozoïdes dans les urines. Le liquide alors émis est communément appelé spurine (contraction des termes sperme et urine).
 Elle peut être observée chez les mâles d'autres espèces animales et alors diagnostiquée  parfois en médecine vétérinaire.
